--- a/tashkent_indeks_2022_10.xlsx
+++ b/tashkent_indeks_2022_10.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t xml:space="preserve">district</t>
   </si>
@@ -54,7 +54,7 @@
     <t xml:space="preserve">Яккасарой</t>
   </si>
   <si>
-    <t xml:space="preserve">Сирғали</t>
+    <t xml:space="preserve">Сергели</t>
   </si>
   <si>
     <t xml:space="preserve">Яшнобод</t>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t xml:space="preserve">Чилонзор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Янги хаёт</t>
   </si>
   <si>
     <t xml:space="preserve">Бектемир</t>
@@ -645,31 +642,31 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C5" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E5" t="n">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F5" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G5" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H5" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I5" t="n">
         <v>151</v>
       </c>
       <c r="J5" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6">
@@ -805,31 +802,31 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D10" t="n">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="E10" t="n">
-        <v>183</v>
+        <v>72</v>
       </c>
       <c r="F10" t="n">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="G10" t="n">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="H10" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I10" t="n">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="J10" t="n">
-        <v>155</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11">
@@ -837,31 +834,31 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C11" t="n">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E11" t="n">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="F11" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G11" t="n">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H11" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I11" t="n">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="J11" t="n">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12">
@@ -869,31 +866,31 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C12" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D12" t="n">
+        <v>119</v>
+      </c>
+      <c r="E12" t="n">
         <v>127</v>
       </c>
-      <c r="E12" t="n">
-        <v>95</v>
-      </c>
       <c r="F12" t="n">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="G12" t="n">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H12" t="n">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="I12" t="n">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="J12" t="n">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
@@ -901,62 +898,30 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C13" t="n">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D13" t="n">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E13" t="n">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F13" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G13" t="n">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="H13" t="n">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="I13" t="n">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="J13" t="n">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="n">
-        <v>130</v>
-      </c>
-      <c r="C14" t="n">
-        <v>106</v>
-      </c>
-      <c r="D14" t="n">
-        <v>129</v>
-      </c>
-      <c r="E14" t="n">
-        <v>115</v>
-      </c>
-      <c r="F14" t="n">
-        <v>117</v>
-      </c>
-      <c r="G14" t="n">
-        <v>147</v>
-      </c>
-      <c r="H14" t="n">
-        <v>141</v>
-      </c>
-      <c r="I14" t="n">
-        <v>142</v>
-      </c>
-      <c r="J14" t="n">
         <v>143</v>
       </c>
     </row>
@@ -979,103 +944,103 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>32</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>33</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>34</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>35</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>36</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>38</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>39</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>40</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>41</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>42</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>43</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>44</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>45</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>46</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>47</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>48</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>49</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>50</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>51</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>52</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>53</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>54</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2">
@@ -1395,13 +1360,13 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -1410,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1449,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="U5" t="n">
         <v>1</v>
@@ -1461,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1915,46 +1880,46 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1969,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1978,40 +1943,40 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF10" t="n">
         <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -2022,25 +1987,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>2</v>
@@ -2049,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
@@ -2058,13 +2023,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2073,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -2082,40 +2047,40 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
         <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2123,28 +2088,28 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>2</v>
@@ -2156,49 +2121,49 @@
         <v>2</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB12" t="n">
         <v>0</v>
@@ -2207,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
         <v>0</v>
@@ -2227,47 +2192,47 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>37</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>15</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>5</v>
       </c>
-      <c r="C13" t="n">
-        <v>40</v>
-      </c>
-      <c r="D13" t="n">
-        <v>4</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" t="n">
-        <v>14</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>2</v>
-      </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
@@ -2275,16 +2240,16 @@
         <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
         <v>2</v>
@@ -2299,10 +2264,10 @@
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
         <v>0</v>
@@ -2311,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
         <v>0</v>
@@ -2323,110 +2288,6 @@
         <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" t="n">
-        <v>37</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" t="n">
-        <v>15</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>5</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>12</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1</v>
-      </c>
-      <c r="X14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
         <v>0</v>
       </c>
     </row>
